--- a/artfynd/A 19734-2020.xlsx
+++ b/artfynd/A 19734-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>383410</v>
+        <v>4146710</v>
       </c>
       <c r="B2" t="n">
-        <v>89831</v>
+        <v>95524</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>221941</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Näset, Jmt</t>
+          <t>Hansselet N, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>513527.6452928542</v>
+        <v>513059.6928573234</v>
       </c>
       <c r="R2" t="n">
-        <v>7156310.902821744</v>
+        <v>7156379.888751854</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,16 +776,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -806,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>306644</v>
+        <v>4248190</v>
       </c>
       <c r="B3" t="n">
-        <v>89391</v>
+        <v>95521</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,38 +808,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>221946</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Näset, Jmt</t>
+          <t>Hansselet N, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>513527.6452928542</v>
+        <v>513059.6928573234</v>
       </c>
       <c r="R3" t="n">
-        <v>7156310.902821744</v>
+        <v>7156379.888751854</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -876,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -886,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -902,16 +892,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -932,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1673126</v>
+        <v>56496377</v>
       </c>
       <c r="B4" t="n">
-        <v>89355</v>
+        <v>78596</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,37 +928,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Näset, Jmt</t>
+          <t>Hansselnäset, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513358.0514030414</v>
+        <v>512961.8462706382</v>
       </c>
       <c r="R4" t="n">
-        <v>7156258.926118287</v>
+        <v>7156381.623015274</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1002,7 +982,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2015-10-11</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,7 +992,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2015-10-11</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1029,34 +1009,42 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Sälg</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Niina Sallmén, Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>Naturskyddare</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>285714</v>
+        <v>383410</v>
       </c>
       <c r="B5" t="n">
-        <v>73685</v>
+        <v>89831</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1065,25 +1053,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>308</v>
+        <v>1209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1093,10 +1081,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513638.3439466305</v>
+        <v>513527.6452928542</v>
       </c>
       <c r="R5" t="n">
-        <v>7156327.324490695</v>
+        <v>7156310.902821744</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1153,6 +1141,11 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1174,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2054126</v>
+        <v>306644</v>
       </c>
       <c r="B6" t="n">
-        <v>78595</v>
+        <v>89391</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1186,25 +1179,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1214,10 +1207,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513681.6634488518</v>
+        <v>513527.6452928542</v>
       </c>
       <c r="R6" t="n">
-        <v>7156278.874021581</v>
+        <v>7156310.902821744</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1274,6 +1267,11 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1295,10 +1293,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1866557</v>
+        <v>1673126</v>
       </c>
       <c r="B7" t="n">
-        <v>73677</v>
+        <v>89355</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,21 +1309,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6439</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1335,10 +1333,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>513442.9507411472</v>
+        <v>513358.0514030414</v>
       </c>
       <c r="R7" t="n">
-        <v>7156261.882689246</v>
+        <v>7156258.926118287</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1395,11 +1393,6 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>björkstubbe</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1421,10 +1414,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>232027</v>
+        <v>285714</v>
       </c>
       <c r="B8" t="n">
-        <v>89672</v>
+        <v>73685</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1437,21 +1430,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1461,10 +1454,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>513527.6452928542</v>
+        <v>513638.3439466305</v>
       </c>
       <c r="R8" t="n">
-        <v>7156310.902821744</v>
+        <v>7156327.324490695</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1521,11 +1514,6 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1547,10 +1535,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>398327</v>
+        <v>2054126</v>
       </c>
       <c r="B9" t="n">
-        <v>81235</v>
+        <v>78595</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1559,25 +1547,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1587,10 +1575,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>513698.9787600925</v>
+        <v>513681.6634488518</v>
       </c>
       <c r="R9" t="n">
-        <v>7156358.160722051</v>
+        <v>7156278.874021581</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1668,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>306645</v>
+        <v>1866557</v>
       </c>
       <c r="B10" t="n">
-        <v>89391</v>
+        <v>73677</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1680,25 +1668,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6439</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1708,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513515.5502153033</v>
+        <v>513442.9507411472</v>
       </c>
       <c r="R10" t="n">
-        <v>7156316.875877347</v>
+        <v>7156261.882689246</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1772,7 +1760,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>björkstubbe</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1794,7 +1782,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>232038</v>
+        <v>232027</v>
       </c>
       <c r="B11" t="n">
         <v>89672</v>
@@ -1834,10 +1822,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>513515.5502153033</v>
+        <v>513527.6452928542</v>
       </c>
       <c r="R11" t="n">
-        <v>7156316.875877347</v>
+        <v>7156310.902821744</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1920,10 +1908,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>224749</v>
+        <v>398327</v>
       </c>
       <c r="B12" t="n">
-        <v>89672</v>
+        <v>81235</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1936,21 +1924,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1960,10 +1948,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>513542.7651640975</v>
+        <v>513698.9787600925</v>
       </c>
       <c r="R12" t="n">
-        <v>7156303.221314855</v>
+        <v>7156358.160722051</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1990,7 +1978,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2000,7 +1988,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2017,23 +2005,20 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
-      <c r="AN12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>1 substratenheter # granlåga</t>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -2044,7 +2029,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>441262</v>
+        <v>306645</v>
       </c>
       <c r="B13" t="n">
         <v>89391</v>
@@ -2084,10 +2069,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>513542.7651640975</v>
+        <v>513515.5502153033</v>
       </c>
       <c r="R13" t="n">
-        <v>7156303.221314855</v>
+        <v>7156316.875877347</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2114,7 +2099,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2124,7 +2109,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2141,23 +2126,25 @@
       <c r="AG13" t="b">
         <v>0</v>
       </c>
-      <c r="AN13" t="n">
-        <v>2</v>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2 substratenheter # granlåga</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2168,10 +2155,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>597335</v>
+        <v>232038</v>
       </c>
       <c r="B14" t="n">
-        <v>89731</v>
+        <v>89672</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2180,25 +2167,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2062</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2208,10 +2195,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>513542.7651640975</v>
+        <v>513515.5502153033</v>
       </c>
       <c r="R14" t="n">
-        <v>7156303.221314855</v>
+        <v>7156316.875877347</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2238,7 +2225,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2248,7 +2235,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2265,23 +2252,25 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AN14" t="n">
-        <v>1</v>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1 substratenheter # granlåga</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2292,10 +2281,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>441263</v>
+        <v>224749</v>
       </c>
       <c r="B15" t="n">
-        <v>89391</v>
+        <v>89672</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2308,21 +2297,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2332,10 +2321,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>513374.6020995466</v>
+        <v>513542.7651640975</v>
       </c>
       <c r="R15" t="n">
-        <v>7156317.975442753</v>
+        <v>7156303.221314855</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2416,10 +2405,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>380749</v>
+        <v>441262</v>
       </c>
       <c r="B16" t="n">
-        <v>89831</v>
+        <v>89391</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2428,25 +2417,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2514,11 +2503,11 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>1 substratenheter # granlåga</t>
+          <t>2 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2540,10 +2529,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4146710</v>
+        <v>597335</v>
       </c>
       <c r="B17" t="n">
-        <v>95524</v>
+        <v>89731</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2552,38 +2541,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221941</v>
+        <v>2062</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Hansselet N, Jmt</t>
+          <t>Näset, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>513059.6928573234</v>
+        <v>513542.7651640975</v>
       </c>
       <c r="R17" t="n">
-        <v>7156379.888751854</v>
+        <v>7156303.221314855</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2610,7 +2599,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2620,7 +2609,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2636,16 +2625,24 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>1 substratenheter # granlåga</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2656,10 +2653,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4248190</v>
+        <v>441263</v>
       </c>
       <c r="B18" t="n">
-        <v>95521</v>
+        <v>89391</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2668,38 +2665,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221946</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Hansselet N, Jmt</t>
+          <t>Näset, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513059.6928573234</v>
+        <v>513374.6020995466</v>
       </c>
       <c r="R18" t="n">
-        <v>7156379.888751854</v>
+        <v>7156317.975442753</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2726,7 +2723,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2736,7 +2733,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2752,16 +2749,24 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>1 substratenheter # granlåga</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2772,10 +2777,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56496376</v>
+        <v>380749</v>
       </c>
       <c r="B19" t="n">
-        <v>81236</v>
+        <v>89831</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2784,41 +2789,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>1209</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Hansselnäset, Jmt</t>
+          <t>Näset, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>513426.9555971468</v>
+        <v>513542.7651640975</v>
       </c>
       <c r="R19" t="n">
-        <v>7156272.574360022</v>
+        <v>7156303.221314855</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2842,7 +2847,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2015-10-11</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2852,7 +2857,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2015-10-11</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2868,43 +2873,38 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AN19" t="n">
         <v>1</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1 substratenheter # Gammal gran</t>
+          <t>1 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Niina Sallmén, Johan Kjetselberg</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Naturskyddare</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56496377</v>
+        <v>56496376</v>
       </c>
       <c r="B20" t="n">
-        <v>78596</v>
+        <v>81236</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2913,25 +2913,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>512961.8462706382</v>
+        <v>513426.9555971468</v>
       </c>
       <c r="R20" t="n">
-        <v>7156381.623015274</v>
+        <v>7156272.574360022</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1 substratenheter # Sälg</t>
+          <t>1 substratenheter # Gammal gran</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 19734-2020.xlsx
+++ b/artfynd/A 19734-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4146710</v>
+        <v>383410</v>
       </c>
       <c r="B2" t="n">
-        <v>95524</v>
+        <v>89831</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221941</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hansselet N, Jmt</t>
+          <t>Näset, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>513059.6928573234</v>
+        <v>513527.6452928542</v>
       </c>
       <c r="R2" t="n">
-        <v>7156379.888751854</v>
+        <v>7156310.902821744</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,6 +776,16 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -796,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4248190</v>
+        <v>306644</v>
       </c>
       <c r="B3" t="n">
-        <v>95521</v>
+        <v>89391</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +818,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221946</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hansselet N, Jmt</t>
+          <t>Näset, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>513059.6928573234</v>
+        <v>513527.6452928542</v>
       </c>
       <c r="R3" t="n">
-        <v>7156379.888751854</v>
+        <v>7156310.902821744</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +876,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +886,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2008-06-01</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,6 +902,16 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -912,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56496377</v>
+        <v>1673126</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>89355</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,37 +948,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hansselnäset, Jmt</t>
+          <t>Näset, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>512961.8462706382</v>
+        <v>513358.0514030414</v>
       </c>
       <c r="R4" t="n">
-        <v>7156381.623015274</v>
+        <v>7156258.926118287</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +1002,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-10-11</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,7 +1012,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-10-11</t>
+          <t>2008-05-31</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1009,42 +1029,34 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Sälg</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Niina Sallmén, Johan Kjetselberg</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Naturskyddare</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>383410</v>
+        <v>285714</v>
       </c>
       <c r="B5" t="n">
-        <v>89831</v>
+        <v>73685</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,25 +1065,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1209</v>
+        <v>308</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1081,10 +1093,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513527.6452928542</v>
+        <v>513638.3439466305</v>
       </c>
       <c r="R5" t="n">
-        <v>7156310.902821744</v>
+        <v>7156327.324490695</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1141,11 +1153,6 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>granlåga</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1167,10 +1174,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>306644</v>
+        <v>2054126</v>
       </c>
       <c r="B6" t="n">
-        <v>89391</v>
+        <v>78595</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,25 +1186,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1207,10 +1214,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513527.6452928542</v>
+        <v>513681.6634488518</v>
       </c>
       <c r="R6" t="n">
-        <v>7156310.902821744</v>
+        <v>7156278.874021581</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1267,11 +1274,6 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>granlåga</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1293,10 +1295,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1673126</v>
+        <v>1866557</v>
       </c>
       <c r="B7" t="n">
-        <v>89355</v>
+        <v>73677</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,21 +1311,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>6439</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1333,10 +1335,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>513358.0514030414</v>
+        <v>513442.9507411472</v>
       </c>
       <c r="R7" t="n">
-        <v>7156258.926118287</v>
+        <v>7156261.882689246</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1393,6 +1395,11 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>björkstubbe</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1414,10 +1421,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>285714</v>
+        <v>232027</v>
       </c>
       <c r="B8" t="n">
-        <v>73685</v>
+        <v>89672</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1430,21 +1437,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1454,10 +1461,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>513638.3439466305</v>
+        <v>513527.6452928542</v>
       </c>
       <c r="R8" t="n">
-        <v>7156327.324490695</v>
+        <v>7156310.902821744</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1514,6 +1521,11 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1535,10 +1547,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2054126</v>
+        <v>398327</v>
       </c>
       <c r="B9" t="n">
-        <v>78595</v>
+        <v>81235</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1547,25 +1559,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1575,10 +1587,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>513681.6634488518</v>
+        <v>513698.9787600925</v>
       </c>
       <c r="R9" t="n">
-        <v>7156278.874021581</v>
+        <v>7156358.160722051</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1656,10 +1668,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1866557</v>
+        <v>306645</v>
       </c>
       <c r="B10" t="n">
-        <v>73677</v>
+        <v>89391</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1668,25 +1680,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6439</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1708,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513442.9507411472</v>
+        <v>513515.5502153033</v>
       </c>
       <c r="R10" t="n">
-        <v>7156261.882689246</v>
+        <v>7156316.875877347</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1760,7 +1772,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>björkstubbe</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1782,7 +1794,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>232027</v>
+        <v>232038</v>
       </c>
       <c r="B11" t="n">
         <v>89672</v>
@@ -1822,10 +1834,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>513527.6452928542</v>
+        <v>513515.5502153033</v>
       </c>
       <c r="R11" t="n">
-        <v>7156310.902821744</v>
+        <v>7156316.875877347</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1908,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>398327</v>
+        <v>224749</v>
       </c>
       <c r="B12" t="n">
-        <v>81235</v>
+        <v>89672</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1924,21 +1936,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1948,10 +1960,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>513698.9787600925</v>
+        <v>513542.7651640975</v>
       </c>
       <c r="R12" t="n">
-        <v>7156358.160722051</v>
+        <v>7156303.221314855</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1978,7 +1990,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1988,7 +2000,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2005,20 +2017,23 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
+      <c r="AN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>1 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -2029,7 +2044,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>306645</v>
+        <v>441262</v>
       </c>
       <c r="B13" t="n">
         <v>89391</v>
@@ -2069,10 +2084,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>513515.5502153033</v>
+        <v>513542.7651640975</v>
       </c>
       <c r="R13" t="n">
-        <v>7156316.875877347</v>
+        <v>7156303.221314855</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2099,7 +2114,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2109,7 +2124,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2126,25 +2141,23 @@
       <c r="AG13" t="b">
         <v>0</v>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
+      <c r="AN13" t="n">
+        <v>2</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>2 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2155,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>232038</v>
+        <v>597335</v>
       </c>
       <c r="B14" t="n">
-        <v>89672</v>
+        <v>89731</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2167,25 +2180,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>2062</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2195,10 +2208,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>513515.5502153033</v>
+        <v>513542.7651640975</v>
       </c>
       <c r="R14" t="n">
-        <v>7156316.875877347</v>
+        <v>7156303.221314855</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2225,7 +2238,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2235,7 +2248,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2008-05-31</t>
+          <t>2007-06-28</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2252,25 +2265,23 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
+      <c r="AN14" t="n">
+        <v>1</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>1 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2281,10 +2292,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>224749</v>
+        <v>441263</v>
       </c>
       <c r="B15" t="n">
-        <v>89672</v>
+        <v>89391</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2297,21 +2308,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2321,10 +2332,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>513542.7651640975</v>
+        <v>513374.6020995466</v>
       </c>
       <c r="R15" t="n">
-        <v>7156303.221314855</v>
+        <v>7156317.975442753</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2405,10 +2416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>441262</v>
+        <v>380749</v>
       </c>
       <c r="B16" t="n">
-        <v>89391</v>
+        <v>89831</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2417,25 +2428,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2503,11 +2514,11 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2 substratenheter # granlåga</t>
+          <t>1 substratenheter # granlåga</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2529,10 +2540,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>597335</v>
+        <v>4146710</v>
       </c>
       <c r="B17" t="n">
-        <v>89731</v>
+        <v>95524</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2541,38 +2552,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2062</v>
+        <v>221941</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Näset, Jmt</t>
+          <t>Hansselet N, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>513542.7651640975</v>
+        <v>513059.6928573234</v>
       </c>
       <c r="R17" t="n">
-        <v>7156303.221314855</v>
+        <v>7156379.888751854</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2599,7 +2610,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2609,7 +2620,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2625,24 +2636,16 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>1 substratenheter # granlåga</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2653,10 +2656,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>441263</v>
+        <v>4248190</v>
       </c>
       <c r="B18" t="n">
-        <v>89391</v>
+        <v>95521</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2665,38 +2668,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>221946</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Näset, Jmt</t>
+          <t>Hansselet N, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513374.6020995466</v>
+        <v>513059.6928573234</v>
       </c>
       <c r="R18" t="n">
-        <v>7156317.975442753</v>
+        <v>7156379.888751854</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2723,7 +2726,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2733,7 +2736,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2008-06-01</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2749,24 +2752,16 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>1 substratenheter # granlåga</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2777,10 +2772,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>380749</v>
+        <v>56496376</v>
       </c>
       <c r="B19" t="n">
-        <v>89831</v>
+        <v>81236</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2789,41 +2784,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Näset, Jmt</t>
+          <t>Hansselnäset, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>513542.7651640975</v>
+        <v>513426.9555971468</v>
       </c>
       <c r="R19" t="n">
-        <v>7156303.221314855</v>
+        <v>7156272.574360022</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2847,7 +2842,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2015-10-11</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2857,7 +2852,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2007-06-28</t>
+          <t>2015-10-11</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2873,38 +2868,43 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AN19" t="n">
         <v>1</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1 substratenheter # granlåga</t>
+          <t>1 substratenheter # Gammal gran</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Niina Sallmén, Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>Naturskyddare</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56496376</v>
+        <v>56496377</v>
       </c>
       <c r="B20" t="n">
-        <v>81236</v>
+        <v>78596</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2913,25 +2913,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>513426.9555971468</v>
+        <v>512961.8462706382</v>
       </c>
       <c r="R20" t="n">
-        <v>7156272.574360022</v>
+        <v>7156381.623015274</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1 substratenheter # Gammal gran</t>
+          <t>1 substratenheter # Sälg</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
